--- a/work08/cnn-ex1-stud.xlsx
+++ b/work08/cnn-ex1-stud.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henneber/SWITCHdrive/teaching/mse-tsm-dl/practical-work/8.keras-cnn/excel-input-ex-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkuehnis/Documents/hsr/hs18/TSM_DeLearn/work08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474210AF-0640-E94C-AF05-53D29A070653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAAD3DE-61B9-5F43-BDA7-6D16153B464E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="4660" windowWidth="27640" windowHeight="16560" xr2:uid="{8C63438D-D797-2F4D-8C3D-BC6A238C5B67}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14920" activeTab="1" xr2:uid="{8C63438D-D797-2F4D-8C3D-BC6A238C5B67}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ex1a" sheetId="2" r:id="rId1"/>
+    <sheet name="Ex1b" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>input</t>
   </si>
@@ -49,13 +50,43 @@
   </si>
   <si>
     <t>Filter1 2x2x3</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Filter weights</t>
+  </si>
+  <si>
+    <t>Filter bias</t>
+  </si>
+  <si>
+    <t>Result S=1 P=0</t>
+  </si>
+  <si>
+    <t>Result S=2 P=0</t>
+  </si>
+  <si>
+    <t>Result S=4 P=0</t>
+  </si>
+  <si>
+    <t>Result S=1 P=1</t>
+  </si>
+  <si>
+    <t>Result S=4 P=1</t>
+  </si>
+  <si>
+    <t>S=1 P=0</t>
+  </si>
+  <si>
+    <t>S=2 P=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,8 +94,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +188,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,14 +509,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B9030-5D44-1D4F-AF72-C57A1E89C696}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>-2</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>-1</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>B1*$C$2+C1*$D$2+D1*$E$2+$C$3</f>
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <f>C1*$C$2+D1*$D$2+E1*$E$2+$C$3</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:J5" si="0">D1*$C$2+E1*$D$2+F1*$E$2+$C$3</f>
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f>B1*$C$2+C1*$D$2+D1*$E$2+$C$3</f>
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <f>D1*$C$2+E1*$D$2+F1*$E$2+$C$3</f>
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <f>F1*$C$2+G1*$D$2+H1*$E$2+$C$3</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>H1*$C$2+I1*$D$2+J1*$E$2+$C$3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f>B1*$C$2+C1*$D$2+D1*$E$2+$C$3</f>
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <f>F1*$C$2+G1*$D$2+H1*$E$2+$C$3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <f>0*$B$2+B1*$C$2+C1*$D$2+$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>B1*$B$2+C1*$C$2+D1*$D$2+$B$3</f>
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:L8" si="1">C1*$B$2+D1*$C$2+E1*$D$2+$B$3</f>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>0*$C$2+B1*$D$2+C1*$E$2+$C$3</f>
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <f>E1*$C$2+F1*$D$2+G1*$E$2+$C$3</f>
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <f>I1*$C$2+J1*$D$2+0*$E$2+$C$3</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D308E945-0386-A246-9572-FC8DE175F97D}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -474,7 +743,7 @@
     <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="24" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -483,7 +752,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="24" customHeight="1">
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
@@ -492,8 +761,14 @@
         <v>6</v>
       </c>
       <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="24" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,9 +801,32 @@
       <c r="P3" s="2">
         <v>1</v>
       </c>
-      <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="1">
+        <f>(D3*$K$3+E3*$L$3+D4*$K$4+E4*$L$4)+(D9*$K$6+E9*$L$6+D10*$K$7+E10*$L$7)+(D15*$K$9+E15*$L$9+D16*$K$10+E16*$L$10)+$L$12</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:V3" si="0">(E3*$K$3+F3*$L$3+E4*$K$4+F4*$L$4)+(E9*$K$6+F9*$L$6+E10*$K$7+F10*$L$7)+(E15*$K$9+F15*$L$9+E16*$K$10+F16*$L$10)+$L$12</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>(D3*$K$3+E3*$L$3+D4*$K$4+E4*$L$4)+(D9*$K$6+E9*$L$6+D10*$K$7+E10*$L$7)+(D15*$K$9+E15*$L$9+D16*$K$10+E16*$L$10)+$L$12</f>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="8">
+        <f t="shared" ref="Z3:AA3" si="1">(E3*$K$3+F3*$L$3+E4*$K$4+F4*$L$4)+(E9*$K$6+F9*$L$6+E10*$K$7+F10*$L$7)+(E15*$K$9+F15*$L$9+E16*$K$10+F16*$L$10)+$L$12</f>
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="24" customHeight="1">
       <c r="D4" s="2">
         <v>2</v>
       </c>
@@ -555,9 +853,32 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-      <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T5" si="2">(D4*$K$3+E4*$L$3+D5*$K$4+E5*$L$4)+(D10*$K$6+E10*$L$6+D11*$K$7+E11*$L$7)+(D16*$K$9+E16*$L$9+D17*$K$10+E17*$L$10)+$L$12</f>
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U5" si="3">(E4*$K$3+F4*$L$3+E5*$K$4+F5*$L$4)+(E10*$K$6+F10*$L$6+E11*$K$7+F11*$L$7)+(E16*$K$9+F16*$L$9+E17*$K$10+F17*$L$10)+$L$12</f>
+        <v>-1</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V5" si="4">(F4*$K$3+G4*$L$3+F5*$K$4+G5*$L$4)+(F10*$K$6+G10*$L$6+F11*$K$7+G11*$L$7)+(F16*$K$9+G16*$L$9+F17*$K$10+G17*$L$10)+$L$12</f>
+        <v>6</v>
+      </c>
+      <c r="Y4" s="9">
+        <f t="shared" ref="Y4:Y5" si="5">(D4*$K$3+E4*$L$3+D5*$K$4+E5*$L$4)+(D10*$K$6+E10*$L$6+D11*$K$7+E11*$L$7)+(D16*$K$9+E16*$L$9+D17*$K$10+E17*$L$10)+$L$12</f>
+        <v>3</v>
+      </c>
+      <c r="Z4" s="8">
+        <f t="shared" ref="Z4:Z5" si="6">(E4*$K$3+F4*$L$3+E5*$K$4+F5*$L$4)+(E10*$K$6+F10*$L$6+E11*$K$7+F11*$L$7)+(E16*$K$9+F16*$L$9+E17*$K$10+F17*$L$10)+$L$12</f>
+        <v>-1</v>
+      </c>
+      <c r="AA4" s="9">
+        <f t="shared" ref="AA4:AA5" si="7">(F4*$K$3+G4*$L$3+F5*$K$4+G5*$L$4)+(F10*$K$6+G10*$L$6+F11*$K$7+G11*$L$7)+(F16*$K$9+G16*$L$9+F17*$K$10+G17*$L$10)+$L$12</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="24" customHeight="1">
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -574,9 +895,32 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="5"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Z5" s="8">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="24" customHeight="1">
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -604,7 +948,7 @@
       </c>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="24" customHeight="1">
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -623,8 +967,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="24" customHeight="1">
+      <c r="T8" s="1">
+        <f>(D3*$O$3+E3*$P$3+D4*$O$4+E4*$P$4)+(D9*$O$6+E9*$P$6+D10*$O$7+E10*$P$7)+(D15*$O$9+E15*$P$9+D16*$O$10+E16*$P$10)+$P$12</f>
+        <v>3</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" ref="U8:V8" si="8">(E3*$O$3+F3*$P$3+E4*$O$4+F4*$P$4)+(E9*$O$6+F9*$P$6+E10*$O$7+F10*$P$7)+(E15*$O$9+F15*$P$9+E16*$O$10+F16*$P$10)+$P$12</f>
+        <v>2</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>T8</f>
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1">
+        <f>V8</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="24" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -653,8 +1018,28 @@
       <c r="P9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="1">
+        <f t="shared" ref="T9:T10" si="9">(D4*$O$3+E4*$P$3+D5*$O$4+E5*$P$4)+(D10*$O$6+E10*$P$6+D11*$O$7+E11*$P$7)+(D16*$O$9+E16*$P$9+D17*$O$10+E17*$P$10)+$P$12</f>
+        <v>-1</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" ref="U9:U10" si="10">(E4*$O$3+F4*$P$3+E5*$O$4+F5*$P$4)+(E10*$O$6+F10*$P$6+E11*$O$7+F11*$P$7)+(E16*$O$9+F16*$P$9+E17*$O$10+F17*$P$10)+$P$12</f>
+        <v>3</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" ref="V9:V10" si="11">(F4*$O$3+G4*$P$3+F5*$O$4+G5*$P$4)+(F10*$O$6+G10*$P$6+F11*$O$7+G11*$P$7)+(F16*$O$9+G16*$P$9+F17*$O$10+G17*$P$10)+$P$12</f>
+        <v>7</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>T10</f>
+        <v>4</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="24" customHeight="1">
       <c r="D10" s="2">
         <v>0</v>
       </c>
@@ -680,8 +1065,20 @@
       <c r="P10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="24" customHeight="1">
       <c r="D11" s="2">
         <v>2</v>
       </c>
@@ -696,7 +1093,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="24" customHeight="1">
       <c r="D12" s="2">
         <v>1</v>
       </c>
@@ -723,15 +1120,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="24" customHeight="1">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="24" customHeight="1"/>
+    <row r="15" spans="1:27" ht="24" customHeight="1">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,7 +1146,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="24" customHeight="1">
       <c r="D16" s="2">
         <v>2</v>
       </c>
@@ -764,7 +1161,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="4:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:8" ht="24" customHeight="1">
       <c r="D17" s="2">
         <v>2</v>
       </c>
@@ -779,7 +1176,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="4:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:8" ht="24" customHeight="1">
       <c r="D18" s="2">
         <v>0</v>
       </c>
@@ -794,16 +1191,16 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="4:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:8" ht="24" customHeight="1">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="4:8" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="4:8" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="4:8" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="4:8" ht="24" customHeight="1"/>
+    <row r="21" spans="4:8" ht="24" customHeight="1"/>
+    <row r="22" spans="4:8" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
